--- a/TRUONGHOC1.xlsx
+++ b/TRUONGHOC1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\HK2\CSDL\Database_Project_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E29E77D-046E-48C3-A2E8-BDA2724B7D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A311454B-90AF-4059-A3CD-9D6285A28D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" firstSheet="1" activeTab="1" xr2:uid="{4AC677A5-5224-4720-86E6-4C944A993BA7}"/>
+    <workbookView xWindow="10657" yWindow="0" windowWidth="11026" windowHeight="11512" firstSheet="1" activeTab="1" xr2:uid="{4AC677A5-5224-4720-86E6-4C944A993BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Lược đồ truonghoc1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>TRUONGHOC1</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>Xuất Sắc</t>
+  </si>
+  <si>
+    <t>THPT Lương Thế Vinh</t>
+  </si>
+  <si>
+    <t>THPT Trần Khai Nguyên</t>
+  </si>
+  <si>
+    <t>THPT chuyên Trần Đại Nghĩa</t>
+  </si>
+  <si>
+    <t>THPT Marie Curie</t>
   </si>
 </sst>
 </file>
@@ -971,17 +983,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9960EB72-1DE5-48EF-BE07-0208B09AE897}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.53125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="24.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="11.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.53125" style="1" customWidth="1"/>
     <col min="6" max="9" width="9.06640625" style="1"/>
     <col min="10" max="10" width="6.86328125" style="1" customWidth="1"/>
@@ -1023,7 +1036,6 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -1039,10 +1051,10 @@
         <v>55</v>
       </c>
       <c r="E4" s="1">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1">
-        <v>5.3978919982910101E-2</v>
+        <v>0.15431952476501401</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1067,10 +1079,10 @@
         <v>56</v>
       </c>
       <c r="E5" s="1">
-        <v>738</v>
+        <v>434</v>
       </c>
       <c r="F5" s="1">
-        <v>7.1020841598510701E-2</v>
+        <v>0.16201543807983301</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1095,10 +1107,10 @@
         <v>58</v>
       </c>
       <c r="E6" s="1">
-        <v>2648</v>
+        <v>2179</v>
       </c>
       <c r="F6" s="1">
-        <v>0.25931644439697199</v>
+        <v>0.57738924026489202</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1123,10 +1135,10 @@
         <v>60</v>
       </c>
       <c r="E7" s="1">
-        <v>1998</v>
+        <v>3743</v>
       </c>
       <c r="F7" s="1">
-        <v>0.17797589302062899</v>
+        <v>0.68955540657043402</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1151,10 +1163,10 @@
         <v>62</v>
       </c>
       <c r="E8" s="1">
-        <v>1855</v>
+        <v>1392</v>
       </c>
       <c r="F8" s="1">
-        <v>0.17268347740173301</v>
+        <v>0.32159471511840798</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1166,6 +1178,24 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1">
+        <v>815</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.13039231300354001</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1176,6 +1206,24 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1660</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.197319746017456</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1186,6 +1234,24 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1418</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.126941919326782</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1196,8 +1262,23 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1">
+        <v>177</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.6085119247436503E-2</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1209,23 +1290,23 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>50</v>
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1858</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.20660400390625</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1237,24 +1318,6 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1">
-        <v>257</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6.6220283508300698E-2</v>
-      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1265,24 +1328,6 @@
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1">
-        <v>738</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.110649585723876</v>
-      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1293,23 +1338,8 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2648</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.33286857604980402</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1321,23 +1351,23 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1998</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.21712827682495101</v>
+      <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1350,22 +1380,22 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1">
-        <v>1855</v>
+        <v>150</v>
       </c>
       <c r="F18" s="1">
-        <v>0.20164680480957001</v>
+        <v>0.102040767669677</v>
       </c>
       <c r="K18" s="1">
         <v>2</v>
@@ -1375,6 +1405,186 @@
       </c>
       <c r="N18" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1">
+        <v>434</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.149008274078369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2179</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.30796909332275302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3743</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.38063430786132801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1392</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.165134906768798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1">
+        <v>815</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.118390560150146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1660</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.17289757728576599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1418</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.169767141342163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1">
+        <v>177</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4.5824766159057603E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1858</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.230659484863281</v>
       </c>
     </row>
   </sheetData>
@@ -1382,19 +1592,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1" low="1" displayXAxis="1" xr2:uid="{3210C485-E854-4866-A5B1-590B5F886F2A}">
-          <x14:colorSeries rgb="FF0070C0"/>
-          <x14:colorNegative rgb="FF000000"/>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D5C7FFA0-93C5-4A6F-B509-CBA876852AE0}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF000000"/>
-          <x14:colorFirst rgb="FF000000"/>
-          <x14:colorLast rgb="FF000000"/>
-          <x14:colorHigh rgb="FF000000"/>
-          <x14:colorLow rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Đánh giá thời gian'!F4:F8</xm:f>
-              <xm:sqref>I3</xm:sqref>
+              <xm:f>'Đánh giá thời gian'!F:F</xm:f>
+              <xm:sqref>D9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -1430,22 +1640,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D5C7FFA0-93C5-4A6F-B509-CBA876852AE0}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Đánh giá thời gian'!F:F</xm:f>
-              <xm:sqref>D9</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
